--- a/scores.xlsx
+++ b/scores.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,6 +616,38 @@
       </c>
       <c r="B24" t="n">
         <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>45296.979665625</v>
+      </c>
+      <c r="B25" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45296.98484472222</v>
+      </c>
+      <c r="B26" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45296.98487446759</v>
+      </c>
+      <c r="B27" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>45296.98495596064</v>
+      </c>
+      <c r="B28" t="n">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,10 +687,106 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45296.94438690312</v>
+        <v>45296.94438689815</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45296.9717490625</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45296.97704336805</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45296.97823913195</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45296.97881189815</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45296.97936525463</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45296.97958136574</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45296.98166434028</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45296.98221091435</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45296.98263688658</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45296.9829290625</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45296.98436892361</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45296.98504631247</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,6 +648,14 @@
       </c>
       <c r="B28" t="n">
         <v>199</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45296.99374246527</v>
+      </c>
+      <c r="B29" t="n">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -661,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,10 +791,58 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45296.98504631247</v>
+        <v>45296.98504630787</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45296.99093835648</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45296.99304887732</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45296.9939753588</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45297.01418447917</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45297.01466699074</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45297.0161971336</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,6 +656,46 @@
       </c>
       <c r="B29" t="n">
         <v>196</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45297.07732520833</v>
+      </c>
+      <c r="B30" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45297.08802732639</v>
+      </c>
+      <c r="B31" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45297.08858391204</v>
+      </c>
+      <c r="B32" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45297.08942990741</v>
+      </c>
+      <c r="B33" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45297.08948217593</v>
+      </c>
+      <c r="B34" t="n">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,10 +879,34 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45297.0161971336</v>
+        <v>45297.01619712963</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>45297.07844285879</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45297.08636234954</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>45297.09195242929</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,6 +696,46 @@
       </c>
       <c r="B34" t="n">
         <v>209</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45297.64701197917</v>
+      </c>
+      <c r="B35" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45297.64705827546</v>
+      </c>
+      <c r="B36" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45297.64711903935</v>
+      </c>
+      <c r="B37" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45297.87343901621</v>
+      </c>
+      <c r="B38" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45297.87349833333</v>
+      </c>
+      <c r="B39" t="n">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,10 +943,26 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45297.09195242929</v>
+        <v>45297.09195243056</v>
       </c>
       <c r="B24" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>45297.64784537037</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45297.87458248842</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -920,14 +976,71 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>45297.87109076389</v>
+      </c>
+      <c r="B1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45297.87163495371</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45297.87180712963</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45297.87255796296</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45297.87300290509</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45297.87313408565</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45297.87480331509</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scores.xlsx
+++ b/scores.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,6 +736,22 @@
       </c>
       <c r="B39" t="n">
         <v>197</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45298.61649081019</v>
+      </c>
+      <c r="B40" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45298.61655283565</v>
+      </c>
+      <c r="B41" t="n">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,6 +979,14 @@
       </c>
       <c r="B26" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45298.61706302309</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -976,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,10 +1058,18 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45297.87480331509</v>
+        <v>45297.87480331019</v>
       </c>
       <c r="B7" t="n">
         <v>10.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45298.616405625</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.9</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,331 +427,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>45293.89817069445</v>
-      </c>
-      <c r="B1" t="n">
-        <v>202</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45293.89919722222</v>
+        <v>45299.0631766088</v>
       </c>
       <c r="B2" t="n">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45293.89925346065</v>
+        <v>45299.0632225463</v>
       </c>
       <c r="B3" t="n">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45294.00570883102</v>
+        <v>45299.06327988426</v>
       </c>
       <c r="B4" t="n">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45294.00577863426</v>
+        <v>45299.06334662037</v>
       </c>
       <c r="B5" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45294.00583035879</v>
+        <v>45299.06549833333</v>
       </c>
       <c r="B6" t="n">
-        <v>181</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45294.00587032407</v>
+        <v>45299.08987951389</v>
       </c>
       <c r="B7" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45294.01349577546</v>
+        <v>45299.09186287037</v>
       </c>
       <c r="B8" t="n">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45294.01417872685</v>
+        <v>45299.09192269676</v>
       </c>
       <c r="B9" t="n">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45294.01424418981</v>
+        <v>45299.09200537784</v>
       </c>
       <c r="B10" t="n">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45294.09249533565</v>
-      </c>
-      <c r="B11" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45294.09252861111</v>
-      </c>
-      <c r="B12" t="n">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45294.09256984953</v>
-      </c>
-      <c r="B13" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45294.09264833333</v>
-      </c>
-      <c r="B14" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45294.09277709491</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>45294.67644996528</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>45294.73199178241</v>
-      </c>
-      <c r="B17" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>45294.73211092593</v>
-      </c>
-      <c r="B18" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>45294.73358269676</v>
-      </c>
-      <c r="B19" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>45294.73365665509</v>
-      </c>
-      <c r="B20" t="n">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>45296.09474084491</v>
-      </c>
-      <c r="B21" t="n">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>45296.69578979167</v>
-      </c>
-      <c r="B22" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>45296.69582347222</v>
-      </c>
-      <c r="B23" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>45296.6959399537</v>
-      </c>
-      <c r="B24" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>45296.979665625</v>
-      </c>
-      <c r="B25" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>45296.98484472222</v>
-      </c>
-      <c r="B26" t="n">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>45296.98487446759</v>
-      </c>
-      <c r="B27" t="n">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>45296.98495596064</v>
-      </c>
-      <c r="B28" t="n">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>45296.99374246527</v>
-      </c>
-      <c r="B29" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>45297.07732520833</v>
-      </c>
-      <c r="B30" t="n">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>45297.08802732639</v>
-      </c>
-      <c r="B31" t="n">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>45297.08858391204</v>
-      </c>
-      <c r="B32" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>45297.08942990741</v>
-      </c>
-      <c r="B33" t="n">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>45297.08948217593</v>
-      </c>
-      <c r="B34" t="n">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>45297.64701197917</v>
-      </c>
-      <c r="B35" t="n">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45297.64705827546</v>
-      </c>
-      <c r="B36" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45297.64711903935</v>
-      </c>
-      <c r="B37" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45297.87343901621</v>
-      </c>
-      <c r="B38" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45297.87349833333</v>
-      </c>
-      <c r="B39" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45298.61649081019</v>
-      </c>
-      <c r="B40" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45298.61655283565</v>
-      </c>
-      <c r="B41" t="n">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,218 +530,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>45296.94072736111</v>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45296.9440134375</v>
+        <v>45299.08535108796</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45296.94438689815</v>
+        <v>45299.08552072917</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45296.9717490625</v>
+        <v>45299.08592841435</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45296.97704336805</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45296.97823913195</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45296.97881189815</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45296.97936525463</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45296.97958136574</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45296.98166434028</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45296.98221091435</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45296.98263688658</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45296.9829290625</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45296.98436892361</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45296.98504630787</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>45296.99093835648</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>45296.99304887732</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>45296.9939753588</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>45297.01418447917</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>45297.01466699074</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>45297.01619712963</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>45297.07844285879</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>45297.08636234954</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>45297.09195243056</v>
-      </c>
-      <c r="B24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>45297.64784537037</v>
-      </c>
-      <c r="B25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>45297.87458248842</v>
-      </c>
-      <c r="B26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>45298.61706302309</v>
-      </c>
-      <c r="B27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1000,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,67 +585,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>45297.87109076389</v>
-      </c>
-      <c r="B1" t="n">
-        <v>10</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45297.87163495371</v>
+        <v>45299.08903556713</v>
       </c>
       <c r="B2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45297.87180712963</v>
+        <v>45299.08916114584</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45297.87255796296</v>
+        <v>45299.08930828704</v>
       </c>
       <c r="B4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45297.87300290509</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45297.87313408565</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45297.87480331019</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45298.616405625</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9.9</v>
+        <v>11.8</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,38 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biber\Documents\Projects\python-exam\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316490ED-AF5C-427C-B033-781EE2206979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="reaction game" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="memory game" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="target game" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="reaction game" sheetId="1" r:id="rId1"/>
+    <sheet name="memory game" sheetId="2" r:id="rId2"/>
+    <sheet name="target game" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,81 +67,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -413,101 +370,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>45299.0631766088</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45299.063176608797</v>
+      </c>
+      <c r="B2">
         <v>183</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45299.0632225463</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45299.063222546298</v>
+      </c>
+      <c r="B3">
         <v>170</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45299.06327988426</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45299.063279884263</v>
+      </c>
+      <c r="B4">
         <v>157</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45299.06334662037</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45299.063346620373</v>
+      </c>
+      <c r="B5">
         <v>149</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45299.06549833333</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>216</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45299.08987951389</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45299.089879513893</v>
+      </c>
+      <c r="B7">
         <v>203</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45299.09186287037</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45299.091862870373</v>
+      </c>
+      <c r="B8">
         <v>178</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45299.09192269676</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>161</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45299.09200537784</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45299.092005381943</v>
+      </c>
+      <c r="B10">
         <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45299.106036805562</v>
+      </c>
+      <c r="B11">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45299.10610715278</v>
+      </c>
+      <c r="B12">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -516,54 +479,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>45299.08535108796</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45299.08552072917</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45299.08592841435</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -571,53 +511,120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>45299.08903556713</v>
-      </c>
-      <c r="B2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45299.08916114584</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45299.089035567129</v>
+      </c>
+      <c r="B2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45299.089161145843</v>
+      </c>
+      <c r="B3">
         <v>9.6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45299.08930828704</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45299.089308287039</v>
+      </c>
+      <c r="B4">
         <v>11.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45299.107971220139</v>
+      </c>
+      <c r="B5">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45299.111261574071</v>
+      </c>
+      <c r="B6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45299.112083333333</v>
+      </c>
+      <c r="B7">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45299.112916666665</v>
+      </c>
+      <c r="B8">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45299.113530092596</v>
+      </c>
+      <c r="B9">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45299.114039351851</v>
+      </c>
+      <c r="B10">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45299.114861111113</v>
+      </c>
+      <c r="B11">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45299.115694444445</v>
+      </c>
+      <c r="B12">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45299.116307870368</v>
+      </c>
+      <c r="B13">
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,54 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biber\Documents\Projects\python-exam\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316490ED-AF5C-427C-B033-781EE2206979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="reaction game" sheetId="1" r:id="rId1"/>
-    <sheet name="memory game" sheetId="2" r:id="rId2"/>
-    <sheet name="target game" sheetId="3" r:id="rId3"/>
+    <sheet name="reaction game" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="memory game" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="target game" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,23 +50,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,107 +414,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45299.063176608797</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45299.0631766088</v>
+      </c>
+      <c r="B2" t="n">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45299.063222546298</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45299.0632225463</v>
+      </c>
+      <c r="B3" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45299.063279884263</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45299.06327988426</v>
+      </c>
+      <c r="B4" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45299.063346620373</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45299.06334662037</v>
+      </c>
+      <c r="B5" t="n">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45299.06549833333</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45299.089879513893</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45299.08987951389</v>
+      </c>
+      <c r="B7" t="n">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45299.091862870373</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45299.09186287037</v>
+      </c>
+      <c r="B8" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45299.09192269676</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45299.092005381943</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45299.09200538194</v>
+      </c>
+      <c r="B10" t="n">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45299.106036805562</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45299.10603680556</v>
+      </c>
+      <c r="B11" t="n">
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45299.10610715278</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45299.60760582176</v>
+      </c>
+      <c r="B13" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45299.60767453704</v>
+      </c>
+      <c r="B14" t="n">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -479,31 +549,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45299.60800821759</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45299.60816141203</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -511,120 +605,144 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col width="23.7109375" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45299.089035567129</v>
-      </c>
-      <c r="B2">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45299.089161145843</v>
-      </c>
-      <c r="B3">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45299.08903556713</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45299.08916114584</v>
+      </c>
+      <c r="B3" t="n">
         <v>9.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45299.089308287039</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45299.08930828704</v>
+      </c>
+      <c r="B4" t="n">
         <v>11.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45299.107971220139</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45299.10797121528</v>
+      </c>
+      <c r="B5" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45299.111261574071</v>
-      </c>
-      <c r="B6">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45299.112083333333</v>
-      </c>
-      <c r="B7">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45299.11126157407</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45299.11208333333</v>
+      </c>
+      <c r="B7" t="n">
         <v>9.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45299.112916666665</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45299.11291666667</v>
+      </c>
+      <c r="B8" t="n">
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45299.113530092596</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45299.1135300926</v>
+      </c>
+      <c r="B9" t="n">
         <v>16.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45299.114039351851</v>
-      </c>
-      <c r="B10">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45299.114861111113</v>
-      </c>
-      <c r="B11">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45299.11403935185</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45299.11486111111</v>
+      </c>
+      <c r="B11" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45299.115694444445</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45299.11569444444</v>
+      </c>
+      <c r="B12" t="n">
         <v>11.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45299.116307870368</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45299.11630787037</v>
+      </c>
+      <c r="B13" t="n">
         <v>20.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45299.5361318287</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45299.6083021161</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,38 @@
       </c>
       <c r="B14" t="n">
         <v>208</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45361.96659993056</v>
+      </c>
+      <c r="B15" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45361.96667355324</v>
+      </c>
+      <c r="B16" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45361.99222866898</v>
+      </c>
+      <c r="B17" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45361.99226883102</v>
+      </c>
+      <c r="B18" t="n">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -739,10 +771,18 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45299.6083021161</v>
+        <v>45299.60830211805</v>
       </c>
       <c r="B15" t="n">
         <v>9.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45361.99241335105</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.6</v>
       </c>
     </row>
   </sheetData>
